--- a/assets/xls/Rekap Transaksi.xlsx
+++ b/assets/xls/Rekap Transaksi.xlsx
@@ -500,7 +500,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>5918500</v>
+        <v>5909000</v>
       </c>
       <c r="L7">
         <v>0</v>
